--- a/windows/ffmpeg-20161009-win64-dev/ffmpeg函数注释.xlsx
+++ b/windows/ffmpeg-20161009-win64-dev/ffmpeg函数注释.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>函数名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -65,6 +65,37 @@
 @param key 要匹配的key
 @param flags 一个AV_DICT_*的集合，控制如何检索。
 如果找到返回对应的值，否则返回NULL。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int avformat_seek_file(AVFormatContext *s, int stream_index, int64_t min_ts, int64_t ts, int64_t max_ts, int flags);</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转到时间戳
+在所有的活动流中，跳转到最接近ts的时间戳,时间戳ts在min_ts和max_ts之间
+@params s媒体文件句柄
+@params stream_index 作为时间基准引用的流的索引
+@params min_ts 最小可接受的时间戳
+@params ts 目标时间戳
+@params max_ts 最大可接受的时间戳
+@params flags 标签
+@成功返回0否则返回其他值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>void av_dump_format(AVFormatContext *ic,
+                    int index,
+                    const char *url,
+                    int is_output);</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印输入或输出格式的详细信息，如时间、比特率、流、容器、编码指令、元数据、编码器和时间等
+@ic 要分析的contex
+@index 要打印信息的流索引
+@param url 数据源（如视频文件）
+@params is_output 标记contex是输入(0)或是输出(1)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -511,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -562,6 +593,22 @@
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="165">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="99">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
